--- a/va_facility_data_2025-02-20/Pfc. Justin T. Paton Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Pfc.%20Justin%20T.%20Paton%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pfc. Justin T. Paton Department of Veterans Affairs Clinic - Facility Data.xlsx"; filename*=UTF-8''Pfc.%20Justin%20T.%20Paton%20Department%20of%20Veterans%20Affairs%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R071f028e4d57495ea5381b64eb382c42"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb7adf06e41a6442c9eea74417ee7dcf8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6aeb9552cce84a0a94c3eb93515facb8"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6337689bc14149feb9a4ef7a9daaea2b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R87ed68c9a5824ff6aea4e82367b65245"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf123e1d8739e4847a0ea7f45ba97e8bf"/>
   </x:sheets>
 </x:workbook>
 </file>
